--- a/丁丁11年级成绩.xlsx
+++ b/丁丁11年级成绩.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive D\Yolanda\HarryUniversity\university_info\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B051CAC9-5DC5-4162-B211-85D3363869E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="21555" windowHeight="10320"/>
+    <workbookView xWindow="5904" yWindow="1164" windowWidth="13752" windowHeight="11196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -45,19 +61,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,7 +107,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -99,12 +115,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -146,7 +165,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +198,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,6 +250,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -389,16 +442,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -406,7 +459,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -414,7 +467,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -422,7 +475,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -430,7 +483,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -438,7 +491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -446,7 +499,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -454,7 +507,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -462,10 +515,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3">
       <c r="C10">
-        <f>AVERAGE(C2,C4:C9)</f>
-        <v>94.285714285714292</v>
+        <f>AVERAGE(C4:C9)</f>
+        <v>94.5</v>
       </c>
     </row>
   </sheetData>
@@ -476,12 +529,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -489,12 +542,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
